--- a/Checkpoints.xlsx
+++ b/Checkpoints.xlsx
@@ -400,10 +400,13 @@
   <dimension ref="A2:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -454,11 +457,11 @@
         <v>257</v>
       </c>
       <c r="D3">
-        <f>B3/$N$3 * 100</f>
+        <f t="shared" ref="D3:D9" si="0">B3/$N$3 * 100</f>
         <v>4.322916666666667</v>
       </c>
       <c r="E3">
-        <f>C3/$O$3 * 100</f>
+        <f t="shared" ref="E3:E9" si="1">C3/$O$3 * 100</f>
         <v>23.796296296296298</v>
       </c>
       <c r="G3" t="s">
@@ -496,11 +499,11 @@
         <v>371</v>
       </c>
       <c r="D4">
-        <f>B4/$N$3 * 100</f>
+        <f t="shared" si="0"/>
         <v>10.3125</v>
       </c>
       <c r="E4">
-        <f>C4/$O$3 * 100</f>
+        <f t="shared" si="1"/>
         <v>34.351851851851848</v>
       </c>
       <c r="G4" t="s">
@@ -524,11 +527,11 @@
         <v>411</v>
       </c>
       <c r="D5">
-        <f>B5/$N$3 * 100</f>
+        <f t="shared" si="0"/>
         <v>16.354166666666668</v>
       </c>
       <c r="E5">
-        <f>C5/$O$3 * 100</f>
+        <f t="shared" si="1"/>
         <v>38.055555555555557</v>
       </c>
       <c r="G5" t="s">
@@ -546,11 +549,11 @@
         <v>489</v>
       </c>
       <c r="D6" s="1">
-        <f>B6/$N$3 * 100</f>
+        <f t="shared" si="0"/>
         <v>23.489583333333332</v>
       </c>
       <c r="E6" s="1">
-        <f>C6/$O$3 * 100</f>
+        <f t="shared" si="1"/>
         <v>45.277777777777779</v>
       </c>
     </row>
@@ -565,11 +568,11 @@
         <v>433</v>
       </c>
       <c r="D7">
-        <f>B7/$N$3 * 100</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E7">
-        <f>C7/$O$3 * 100</f>
+        <f t="shared" si="1"/>
         <v>40.092592592592588</v>
       </c>
     </row>
@@ -584,11 +587,11 @@
         <v>622</v>
       </c>
       <c r="D8">
-        <f>B8/$N$3 * 100</f>
+        <f t="shared" si="0"/>
         <v>35.625</v>
       </c>
       <c r="E8">
-        <f>C8/$O$3 * 100</f>
+        <f t="shared" si="1"/>
         <v>57.592592592592595</v>
       </c>
     </row>
@@ -603,11 +606,11 @@
         <v>716</v>
       </c>
       <c r="D9">
-        <f>B9/$N$3 * 100</f>
+        <f t="shared" si="0"/>
         <v>39.0625</v>
       </c>
       <c r="E9">
-        <f>C9/$O$3 * 100</f>
+        <f t="shared" si="1"/>
         <v>66.296296296296305</v>
       </c>
     </row>

--- a/Checkpoints.xlsx
+++ b/Checkpoints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>x</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>checkpoint/state</t>
+  </si>
+  <si>
+    <t>начало</t>
+  </si>
+  <si>
+    <t>лабиринт</t>
+  </si>
+  <si>
+    <t>кодешник</t>
+  </si>
+  <si>
+    <t>посвящение</t>
+  </si>
+  <si>
+    <t>конец</t>
   </si>
 </sst>
 </file>
@@ -397,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O16"/>
+  <dimension ref="A2:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,14 +662,17 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="D14" s="1">
         <v>59.8</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>49.4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
       <c r="D15">
         <v>70.2</v>
       </c>
@@ -663,11 +681,55 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
       <c r="D16">
         <v>73.3</v>
       </c>
       <c r="E16">
         <v>64.3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E18">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>88.8</v>
+      </c>
+      <c r="E19">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>94.1</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
